--- a/data/processed_data/Meganium_Sales_data.xlsx
+++ b/data/processed_data/Meganium_Sales_data.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\records\raw\curso prompt de vendas\project base\data\processed_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canti\PROFISSIONAL\Cursos_div\Digital_Inovation\Microsoft AI for Tech_Criando Prompts Inteligentes\Analise_dados\data\processed_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF384361-7EE9-44FF-94D0-6781DB5A913D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AEF517-1AFA-4DB4-8065-C0B9852983FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20310" yWindow="-435" windowWidth="19260" windowHeight="10245" xr2:uid="{6AE332F9-81B0-4A6E-884F-846423EA80AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{6AE332F9-81B0-4A6E-884F-846423EA80AA}"/>
   </bookViews>
   <sheets>
     <sheet name="consolidate" sheetId="1" r:id="rId1"/>
+    <sheet name="Vendas_Pais_Aliexpress" sheetId="2" r:id="rId2"/>
+    <sheet name="Top3_Produtos_Sites" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">consolidate!$A$1:$N$1</definedName>
@@ -30,7 +32,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="281">
   <si>
     <t>SKU</t>
   </si>
@@ -869,13 +870,25 @@
   </si>
   <si>
     <t>date_sold</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Quantidade Total Vendida</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Produto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,6 +900,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -918,10 +939,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1241,7 +1268,7 @@
   </sheetPr>
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -3952,4 +3979,208 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D1E2FC-FB52-4097-B699-CB9D568F9B43}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1941F9-E807-4B85-81E2-7455433E006C}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>